--- a/model_exports/labels/2.0_False_False_9_0.xlsx
+++ b/model_exports/labels/2.0_False_False_9_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C738"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-1033470726521544704</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-511851013155090432</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,20 +492,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-512006361937616896</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-512017939579432960</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-577847446270832640</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,59 +557,59 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-577847446270832640</t>
+          <t>t-763135506188206084</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-763744681616257025</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-760665387113472001</t>
+          <t>t-764320260182806528</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-760674522622152704</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,20 +635,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-1047160746386382848</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,20 +713,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,46 +739,46 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-501433457286053889</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-501490224640573440</t>
+          <t>t-501433457286053889</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-501490224640573440</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,20 +804,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-622509518346268672</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,33 +830,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-756508260925075456</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-771105696226025472</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,20 +869,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-973668678867746816</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,20 +947,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-973683665661198337</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,7 +973,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,33 +999,33 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,11 +1038,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,24 +1077,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-778024515909537792</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,7 +1155,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-832760057259384834</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,7 +1168,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-832777578633064449</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1181,20 +1181,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,20 +1207,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-687924478219685888</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-687934498701455360</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,46 +1246,46 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-753035409660186624</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,46 +1298,46 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-950256330316615680</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,11 +1389,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1402,33 +1402,33 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-910574474956812289</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,46 +1493,46 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-962999495893176320</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-618483539777093632</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,111 +1545,111 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-847556586600095745</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-618057796345593856</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-878362748232622081</t>
+          <t>t-619513224057061376</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-981162868749033472</t>
+          <t>t-621832039763849218</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-981305166392692736</t>
+          <t>t-621845142903754752</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-981306180961275904</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1031705611933831168</t>
+          <t>t-824338590389960704</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-672497431242756096</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-681802042885697536</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-682128192019234816</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-682147581405859841</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-682223092198936576</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-682287065824931840</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1714,33 +1714,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-682459381347254272</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-682632199527641089</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-682755737790099456</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,20 +1753,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-682908634020470785</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-682915879026339840</t>
+          <t>t-519554920140124160</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,20 +1779,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-683017640638582784</t>
+          <t>t-567811309744705538</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-683036658942513152</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,24 +1805,24 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-683077568287866880</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-683235960692314112</t>
+          <t>t-770209564532674560</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-683258563628777472</t>
+          <t>t-781902339066191873</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,24 +1844,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-683386799184543745</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-683399457254326272</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-683602691965206528</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,11 +1883,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-683628764622905344</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -1896,50 +1896,50 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-683644184683753472</t>
+          <t>t-552005598615597057</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-683649428587155456</t>
+          <t>t-552017511018168320</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-683773064040050688</t>
+          <t>t-552021252442169344</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-683968472968228864</t>
+          <t>t-552065463610802176</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -1948,11 +1948,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-683979793273065473</t>
+          <t>t-552468777791524864</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,37 +1961,37 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-684007082555748352</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-684323489562558465</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-685408547975331840</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -2000,24 +2000,24 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-675047436134543360</t>
+          <t>t-1014948759934066688</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-871833381906067459</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-887680971797131264</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-887683274591662080</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-887690953800253442</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,76 +2065,76 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-887715764404449281</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-887751540173414404</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-887923666507489280</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-887928668626055169</t>
+          <t>t-912821640328773633</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-887976731767918592</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-888083621801844737</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-602966767602831362</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-602969826642898945</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,20 +2169,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-603005702697713664</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-928583361618169856</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-547652103607697408</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,37 +2221,37 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-782023965489238017</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2273,20 +2273,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-904717770524372993</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-992180383449014272</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,20 +2299,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-992184677086777345</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-1035595539918848000</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,11 +2338,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2377,11 +2377,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2390,37 +2390,37 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-618586257753374720</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,11 +2429,11 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -2442,24 +2442,24 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-840282206979444737</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-840289139450925056</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,20 +2481,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-748127558550560768</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-917499339278254080</t>
+          <t>t-758205502480388096</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-758575120290091008</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-961914631135617025</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-782856010625003521</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-829201577370075136</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,20 +2572,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-829349939947925504</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-829364075721326592</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-829412936661815299</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,20 +2624,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,46 +2650,46 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-1031076096287105024</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-692385146725646340</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,20 +2702,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-781685141211058176</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-604384366886834177</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-604797500965265408</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-605112787141033985</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-889517070559334400</t>
+          <t>t-605369768720396288</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,50 +2767,50 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-794700824404430848</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,24 +2832,24 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-858067034772566016</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,24 +2858,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-858109132586483713</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -2884,33 +2884,33 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-956329812573945857</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -2923,11 +2923,11 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,20 +2962,20 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-780146894357929984</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-784456849215123457</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
@@ -3001,33 +3001,33 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B199" t="n">
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,33 +3040,33 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-626642400555892737</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-626741309693394948</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-626870204199534598</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,11 +3079,11 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1036976718718881793</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-727306437798576130</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,11 +3105,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -3118,33 +3118,33 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-1030896472881917952</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,33 +3157,33 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B211" t="n">
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,63 +3196,63 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,37 +3287,37 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-849475288652238849</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-856624832292827137</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-534896855906537472</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-538650662780022784</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-581999689727389696</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,59 +3365,59 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-705116084911763456</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-721969035412422656</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-722671206881746944</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-741861803148214272</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,7 +3443,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-775760180936048640</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,20 +3456,20 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-775760740204552192</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-775766510182731776</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-775772257327128576</t>
+          <t>t-570559495811813376</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-775805122920189952</t>
+          <t>t-570650767369109504</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,24 +3508,24 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-776165588917944320</t>
+          <t>t-570656230466838528</t>
         </is>
       </c>
       <c r="B237" t="n">
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-570659758706962432</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3534,59 +3534,59 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-570724512095969280</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-570966152807100416</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-570990183648243712</t>
         </is>
       </c>
       <c r="B241" t="n">
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-571060362520502272</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-571231922355097600</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,24 +3599,24 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-571320451407974400</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-571330597400018944</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -3625,20 +3625,20 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-741861803148214272</t>
+          <t>t-571345826099941376</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-571920017329156096</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,24 +3651,24 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-903255663417204736</t>
+          <t>t-572029056453115906</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-573087826360836097</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,59 +3677,59 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-669588910935285760</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-669601333348073473</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-726931802141659137</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1026494793466048518</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -3755,33 +3755,33 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B257" t="n">
         <v>1</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-670921727346614272</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,7 +3794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-698062078922375169</t>
+          <t>t-567287806645395457</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,63 +3807,63 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-821117207245713408</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-578003881596215296</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-951353773321945088</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-951370648210767877</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -3872,33 +3872,33 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-573120640175112192</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B266" t="n">
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-772934103733788672</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-772960588171403264</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-773538620472979456</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,24 +3937,24 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-773979956305100800</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -3963,33 +3963,33 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-924289234399322112</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-925720058432811008</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,20 +4002,20 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-960911174505238534</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-609930400341725185</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,11 +4054,11 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-609937116462604289</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -4067,24 +4067,24 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -4093,37 +4093,37 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-878774409280016384</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-571264964683436033</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,46 +4158,46 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-648439576441171968</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-649621017187512320</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,20 +4210,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,11 +4236,11 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,59 +4249,59 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,11 +4314,11 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
         <v>0</v>
@@ -4327,20 +4327,20 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-1002347419114311681</t>
+          <t>t-659172274482733056</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-659184469690175488</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,33 +4353,33 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B302" t="n">
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-580101390820876288</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-580474226571915265</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,11 +4392,11 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-581395014502191104</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -4405,59 +4405,59 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-601584910428729344</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B309" t="n">
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,89 +4470,89 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-631280418583658496</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-636961984953630720</t>
+          <t>t-679420394223345665</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,50 +4561,50 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-751197637794230272</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>0</v>
@@ -4613,20 +4613,20 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B322" t="n">
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,11 +4652,11 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
         <v>0</v>
@@ -4665,20 +4665,20 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,24 +4691,24 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,24 +4717,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B330" t="n">
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,37 +4756,37 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-910172109506273280</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -4795,20 +4795,20 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,20 +4834,20 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-812266777711431682</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-913112779548176384</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B340" t="n">
@@ -4860,50 +4860,50 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-885945201105219584</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-885947457330438145</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,20 +4925,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-804685877838565376</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,20 +4964,20 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-823317212446556161</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,24 +4990,24 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-847243626082050048</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-847412512383356932</t>
+          <t>t-966639239407525888</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,24 +5016,24 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-847416452424519680</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B353" t="n">
         <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-847625871712112640</t>
+          <t>t-1036704309923246081</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-847873968065433600</t>
+          <t>t-1052284815779622917</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,20 +5055,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-848285144846921728</t>
+          <t>t-1052565742183272454</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-848349687950266373</t>
+          <t>t-1052712831517450241</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,46 +5081,46 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-848632201470259200</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-848638922687221760</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-848870222769606658</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-848971430775709697</t>
+          <t>t-499943241962487808</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,24 +5133,24 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-849083151532032000</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-849228504088670208</t>
+          <t>t-673357306764140544</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -5159,33 +5159,33 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-939854628749004801</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-991032269405073408</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-991077450368061440</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,46 +5263,46 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-951198867181236228</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,11 +5341,11 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -5354,24 +5354,24 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-642734533335453700</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,24 +5393,24 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-965605976698126341</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C383" t="n">
         <v>1</v>
@@ -5419,20 +5419,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,11 +5445,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,11 +5484,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C389" t="n">
         <v>0</v>
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>1</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -5536,7 +5536,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-635439309563260929</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,85 +5562,85 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-635461097114484736</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-635467880918818816</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-635469518022803456</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-635491308438728704</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-635718998781390848</t>
+          <t>t-865447859285405696</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>1</v>
       </c>
       <c r="C399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-636228687013265410</t>
+          <t>t-865573879527428096</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,46 +5653,46 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-541965663666184192</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-909677183328751616</t>
+          <t>t-694507587149111296</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,7 +5718,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B407" t="n">
@@ -5731,24 +5731,24 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-627009098568073216</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,24 +5770,24 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-984048304144166912</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-984354039067529216</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,20 +5796,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,20 +5835,20 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B416" t="n">
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,20 +5861,20 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-748093412272910336</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,33 +5900,33 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-702966418057330688</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,33 +5939,33 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-703646494901927936</t>
+          <t>t-913063437118341121</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B425" t="n">
         <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,20 +5978,20 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,20 +6004,20 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-976509689000325120</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-977899948724379649</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -6030,24 +6030,24 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-987423120817643520</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
         <v>0</v>
@@ -6056,7 +6056,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-722777139469283328</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-653928809671081984</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,24 +6108,24 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-1056877276875374593</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,102 +6147,102 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-549859905231142914</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B442" t="n">
         <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-828957006832795648</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-1048216558785449986</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-828957006832795648</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-888058781363580930</t>
+          <t>t-960782723957870592</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
         <v>1</v>
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,37 +6264,37 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-1057351782484115458</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-731437259828924417</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,37 +6316,37 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B453" t="n">
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
         <v>1</v>
@@ -6355,59 +6355,59 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-1003856366128259073</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-633755138834874368</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-940281474259062789</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-580822339648122880</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,33 +6433,33 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-581167008596758528</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-760176410539528192</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,33 +6472,33 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1027292918111825921</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-581115572282376192</t>
+          <t>t-956419595136585729</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,24 +6524,24 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-591541513768673280</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,50 +6550,50 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B472" t="n">
         <v>1</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,11 +6602,11 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-955539710214057984</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
         <v>0</v>
@@ -6615,20 +6615,20 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-955816204769390593</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,11 +6641,11 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,20 +6654,20 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,46 +6680,46 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-769927127475097602</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-1006630570447777793</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-642781966346010625</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,20 +6745,20 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-643095780228771840</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-643795122480631808</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-642781966346010625</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-643095780228771840</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-643795122480631808</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
         <v>0</v>
@@ -6823,33 +6823,33 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-661463139213565952</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,14 +6862,14 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-664402656019005440</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -6888,11 +6888,11 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,11 +6901,11 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-784413747376893952</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C498" t="n">
         <v>0</v>
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,37 +6927,37 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
         <v>1</v>
@@ -6966,11 +6966,11 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-948994988666425345</t>
+          <t>t-704826129178370050</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
         <v>0</v>
@@ -6979,20 +6979,20 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-949010413437497347</t>
+          <t>t-708088836748910592</t>
         </is>
       </c>
       <c r="B504" t="n">
         <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-949151246799142913</t>
+          <t>t-897572628667478020</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,7 +7005,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,11 +7018,11 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C507" t="n">
         <v>0</v>
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-737558350011867138</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,37 +7044,37 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-738417908926320643</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-738664460173381632</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
         <v>1</v>
@@ -7083,37 +7083,37 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -7135,59 +7135,59 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>1</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-737663862317682689</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B518" t="n">
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-737736248970911744</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-737669645872795648</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,20 +7200,20 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-1003603539539742720</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-1005463006455754752</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,37 +7226,37 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-767290506456039424</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-738250548865032192</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C525" t="n">
         <v>0</v>
@@ -7265,20 +7265,20 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-738751926372827136</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,7 +7291,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B528" t="n">
@@ -7304,7 +7304,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,50 +7330,50 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-952704809529851906</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C534" t="n">
         <v>0</v>
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,7 +7395,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,11 +7408,11 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
         <v>1</v>
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,37 +7434,37 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-1002130830792241153</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,11 +7473,11 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-955559981331419136</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -7486,7 +7486,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,7 +7512,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,7 +7525,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-955806828146827266</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,20 +7538,20 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-977185697940623360</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,20 +7564,20 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,11 +7590,11 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
         <v>1</v>
@@ -7603,11 +7603,11 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7616,7 +7616,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-683238954309566464</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-683901242314067968</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,98 +7668,98 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-566257094865981440</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-798050241861840896</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-798099061475684352</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,11 +7772,11 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -7785,46 +7785,46 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-666134929525178369</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B566" t="n">
         <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-666141677652848640</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-666146479564681217</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-666155143696506880</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,50 +7837,50 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-666158894691954689</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-666536410439028736</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-666602420022194177</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-666664955077242881</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,72 +7889,72 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-667221889505296388</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-667625624421445632</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-667976594137350144</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-668796235004932096</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-669882207800942593</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-730666173340209152</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,7 +7993,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-796846317632790528</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B582" t="n">
@@ -8006,24 +8006,24 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-912643743894949888</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,7 +8071,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,33 +8084,33 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B590" t="n">
         <v>1</v>
       </c>
       <c r="C590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-914680114595602432</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,7 +8149,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,7 +8162,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-503088287381082112</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,20 +8240,20 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B601" t="n">
         <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,24 +8279,24 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
         <v>1</v>
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-587184590302814208</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,11 +8318,11 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-587194258815221760</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C607" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-587194893052747777</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,20 +8396,20 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-820295860747542529</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,33 +8500,33 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-820993538456289280</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,33 +8565,33 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-580217985706528769</t>
+          <t>t-1024894521568448513</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-1061598368164528128</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-662632429539057666</t>
+          <t>t-1061625768696930304</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-662681193154920448</t>
+          <t>t-1061782167494320130</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,11 +8617,11 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-663567974029131776</t>
+          <t>t-1062219458046058496</t>
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C630" t="n">
         <v>0</v>
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-674612681832140800</t>
+          <t>t-548367743385624577</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,11 +8643,11 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-675871788564283392</t>
+          <t>t-723687727468683264</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
         <v>0</v>
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-683221184775733248</t>
+          <t>t-723764446498152448</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,20 +8669,20 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-713640428369612800</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-713641932795215874</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-713645035460251648</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,24 +8708,24 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-713649642907406336</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-713682083688767488</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
         <v>1</v>
@@ -8734,11 +8734,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-714598783724597248</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,46 +8747,46 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-714729459107119104</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>1</v>
       </c>
       <c r="C640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-715080311059517440</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,20 +8825,20 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-784943243364487168</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B646" t="n">
         <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-785071804276576256</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,7 +8851,7 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-786121283209564160</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-787201722892455936</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-787228854490243072</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,50 +8890,50 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C654" t="n">
         <v>0</v>
@@ -8942,11 +8942,11 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
         <v>1</v>
@@ -8955,20 +8955,20 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B656" t="n">
         <v>1</v>
       </c>
       <c r="C656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-548367743385624577</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-757365069608923136</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,20 +9007,20 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B660" t="n">
         <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-831995329318772736</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,33 +9072,33 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B666" t="n">
         <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,11 +9111,11 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,20 +9124,20 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-702026039967531008</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-969977636670918656</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-564676313139531776</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,63 +9228,63 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-564736068306878464</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B677" t="n">
         <v>1</v>
       </c>
       <c r="C677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-919103523458969600</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -9293,20 +9293,20 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,11 +9319,11 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-709944298301628416</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="n">
         <v>1</v>
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-544801968703557632</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,11 +9345,11 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-796490215078711296</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,11 +9423,11 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C692" t="n">
         <v>1</v>
@@ -9436,20 +9436,20 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B693" t="n">
         <v>0</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-908138128514437120</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,37 +9462,37 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-950631505486737408</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-820399938416754688</t>
+          <t>t-950698684148142080</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-832028212376985600</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
         <v>1</v>
@@ -9501,7 +9501,7 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-599804476774436864</t>
+          <t>t-832064333504933888</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-1027038929319411712</t>
+          <t>t-563242661562576896</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-1027057881365901312</t>
+          <t>t-564304402253508608</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,24 +9566,24 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-1027179632922046467</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-950713527123066881</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,24 +9657,24 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-677428252881784832</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-720546793344270336</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C711" t="n">
         <v>1</v>
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,20 +9709,20 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-605944627380817920</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-802066289527095297</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,20 +9761,20 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-802114052063252481</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-1062157078439968770</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-675601382867537920</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-676436379425894400</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-833891988315336704</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,91 +9943,13 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>t-780951872647475200</t>
-        </is>
-      </c>
-      <c r="B733" t="n">
-        <v>1</v>
-      </c>
-      <c r="C733" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>t-946177924222222336</t>
-        </is>
-      </c>
-      <c r="B734" t="n">
-        <v>1</v>
-      </c>
-      <c r="C734" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>t-833862725059031044</t>
-        </is>
-      </c>
-      <c r="B735" t="n">
-        <v>1</v>
-      </c>
-      <c r="C735" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>t-833891988315336704</t>
-        </is>
-      </c>
-      <c r="B736" t="n">
-        <v>1</v>
-      </c>
-      <c r="C736" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>t-935334721793306624</t>
-        </is>
-      </c>
-      <c r="B737" t="n">
-        <v>1</v>
-      </c>
-      <c r="C737" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>t-935382314166693889</t>
-        </is>
-      </c>
-      <c r="B738" t="n">
-        <v>1</v>
-      </c>
-      <c r="C738" t="n">
         <v>1</v>
       </c>
     </row>
